--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544968</v>
+        <v>577357.7000544966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,19 +747,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>85.22343841471898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>85.72024486005427</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1610,70 +1610,70 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,16 +1698,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>29.90723668598427</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>45.02278574591163</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>75.98437144330406</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>11.6958115186032</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>33.80371536444981</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>82.6127241370406</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>96.15670189061368</v>
+        <v>30.86155971440646</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2558,59 +2558,59 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>169.9804588624397</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>90.26528878834965</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,62 +3029,62 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>212.2853856434421</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.40882703545771</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,61 +3275,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3408,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,23 +3500,23 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>224.3906817842535</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,67 +3746,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>97.01986919358308</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D44" t="n">
         <v>241.0142888776591</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>97.55759097452248</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>75.23778011704619</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4150,52 +4150,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.9060370580465</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>327.4530077769195</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4449,10 +4449,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.1213740781145</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F6" t="n">
         <v>362.4348659156472</v>
@@ -4650,46 +4650,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="7">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4832,22 +4832,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
         <v>894.6625969973069</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C11" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D11" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U11" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V11" t="n">
-        <v>348.0024326625565</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W11" t="n">
-        <v>348.0024326625565</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X11" t="n">
-        <v>104.5536560184564</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y11" t="n">
-        <v>104.5536560184564</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,22 +5121,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5148,22 +5148,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5309,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>756.2968567456824</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C15" t="n">
-        <v>756.2968567456824</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D15" t="n">
-        <v>607.3624470844311</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E15" t="n">
-        <v>448.1249920789756</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F15" t="n">
-        <v>301.5904341058606</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>162.8596086884761</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>49.49047309605542</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="Y15" t="n">
-        <v>756.2968567456824</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="16">
@@ -5513,7 +5513,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5534,28 +5534,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
         <v>19.28114311021272</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>677.6563304852987</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C18" t="n">
-        <v>677.6563304852987</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D18" t="n">
-        <v>528.7219208240474</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E18" t="n">
-        <v>369.484465818592</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>677.6563304852987</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>677.6563304852987</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>677.6563304852987</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>677.6563304852987</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>677.6563304852987</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>677.6563304852987</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>268.8182272585117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5838,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5944,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>116.4091248179033</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X24" t="n">
-        <v>492.3847606029253</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y24" t="n">
-        <v>284.6244618379714</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="25">
@@ -6136,7 +6136,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H25" t="n">
         <v>829.5248650203655</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>914.2479596093278</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>679.0958513775852</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W27" t="n">
-        <v>435.6470747334852</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>491.7024528141798</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>699.4627515791337</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>491.7024528141798</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6731,16 +6731,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
         <v>720.6083788665362</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
         <v>473.4149733950735</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6895,13 +6895,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D38" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7260,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>535.2133065418734</v>
       </c>
       <c r="V39" t="n">
-        <v>399.5118995681682</v>
+        <v>535.2133065418734</v>
       </c>
       <c r="W39" t="n">
-        <v>156.0631229240681</v>
+        <v>535.2133065418734</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>535.2133065418734</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7494,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>866.0572876383301</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>663.8706929970961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>435.6470747334852</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="43">
@@ -7600,16 +7600,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>613.4725238202047</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="C45" t="n">
-        <v>613.4725238202047</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="D45" t="n">
-        <v>464.5381141589534</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="E45" t="n">
-        <v>305.3006591534979</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="F45" t="n">
-        <v>158.7661011803829</v>
+        <v>118.5782969493848</v>
       </c>
       <c r="G45" t="n">
         <v>20.03527576299844</v>
@@ -7734,13 +7734,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7758,19 +7758,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>613.4725238202047</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V45" t="n">
-        <v>613.4725238202047</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W45" t="n">
-        <v>613.4725238202047</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X45" t="n">
-        <v>613.4725238202047</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y45" t="n">
-        <v>613.4725238202047</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7843,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,13 +8067,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,10 +8541,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,16 +11382,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,19 +22589,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,19 +22635,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22689,10 +22689,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>120.4592573625854</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22790,22 +22790,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>151.0558744761791</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,13 +22826,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,13 +22841,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,16 +22863,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -23027,16 +23027,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23072,7 +23072,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,7 +23264,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>309.459871647713</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,13 +23315,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>26.5151993764422</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23388,19 +23388,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23498,13 +23498,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23549,19 +23549,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23586,16 +23586,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>59.4893961654308</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23634,13 +23634,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>206.672197415008</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23774,31 +23774,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23823,13 +23823,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>36.25107279319241</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23862,7 +23862,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4689171762184</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,25 +24017,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>293.9485431056851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24048,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>64.83234142759815</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,19 +24096,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24145,13 +24145,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>76.55179709770206</v>
+        <v>141.8469392739093</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24446,16 +24446,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,7 +24497,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>62.82012828698561</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,7 +24692,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24759,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>81.03951947102121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>115.5076964151278</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24971,7 +24971,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>70.98780581595737</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,10 +25163,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,25 +25199,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>131.1259181763289</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25284,10 +25284,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>317.3055321907215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25473,10 +25473,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.550700296721345</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,19 +25755,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>74.66330191025475</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D44" t="n">
         <v>113.6687527430239</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25941,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>39.78592618868815</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25998,7 +25998,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>150.7036019639286</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
         <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
@@ -26326,7 +26326,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26335,7 +26335,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
@@ -26347,10 +26347,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="O2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="O2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26451,13 +26451,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="O4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764734</v>
+        <v>-21225.79564764732</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390045</v>
+        <v>59543.63588390042</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.6358839004</v>
+        <v>59543.63588390042</v>
       </c>
       <c r="E6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="F6" t="n">
         <v>93171.23588390039</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>93171.2358839004</v>
       </c>
-      <c r="G6" t="n">
-        <v>93171.23588390044</v>
-      </c>
       <c r="H6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="I6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30111.29328479416</v>
+      </c>
+      <c r="K6" t="n">
         <v>93171.23588390039</v>
       </c>
-      <c r="J6" t="n">
-        <v>30111.29328479421</v>
-      </c>
-      <c r="K6" t="n">
-        <v>93171.2358839004</v>
-      </c>
       <c r="L6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="M6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="N6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="O6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="P6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.23588390036</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35018,10 +35018,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,10 +35261,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,16 +35498,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>55.51629994036225</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38102,16 +38102,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544966</v>
+        <v>579062.4560687634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183962</v>
+        <v>5475808.405183963</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1029,7 +1031,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.95466700954542</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1698,16 +1700,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>74.95904355882614</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1746,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>45.02278574591163</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1844,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1938,10 +1940,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>75.98437144330406</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1976,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>179.4424403754322</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,11 +2095,11 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>24.91124646905582</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2217,10 +2219,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,11 +2317,11 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
@@ -2327,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>30.86155971440646</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2491,46 +2493,46 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.23903973000353</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>169.9804588624397</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>90.26528878834965</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>189.3396229083031</v>
       </c>
     </row>
     <row r="31">
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>18.40882703545771</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>51.96091935415783</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>224.3906817842535</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3667,55 +3669,55 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>37.18582309281555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,28 +3979,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>97.55759097452248</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4603,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="7">
@@ -4741,13 +4743,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4835,19 +4837,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.8830517671884</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C11" t="n">
-        <v>231.8830517671884</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D11" t="n">
-        <v>231.8830517671884</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E11" t="n">
-        <v>231.8830517671884</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F11" t="n">
-        <v>231.8830517671884</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G11" t="n">
-        <v>231.8830517671884</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>718.7806050553886</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>718.7806050553886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U11" t="n">
-        <v>718.7806050553886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V11" t="n">
-        <v>718.7806050553886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W11" t="n">
-        <v>475.3318284112885</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X11" t="n">
-        <v>475.3318284112885</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y11" t="n">
-        <v>475.3318284112885</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5127,10 +5129,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="U12" t="n">
-        <v>533.6469426057913</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="V12" t="n">
-        <v>298.4948343740486</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="W12" t="n">
-        <v>55.04605772994853</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5311,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>649.1947276839472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C15" t="n">
-        <v>474.7416984028202</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D15" t="n">
-        <v>325.807288741569</v>
+        <v>539.5001871211437</v>
       </c>
       <c r="E15" t="n">
-        <v>166.5698337361135</v>
+        <v>380.2627321156882</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>233.7281741425731</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>94.99734872518863</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,13 +5363,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5394,13 +5396,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>817.4100647040152</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>817.4100647040152</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>817.4100647040152</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D18" t="n">
-        <v>540.5358718529395</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E18" t="n">
-        <v>381.298416847484</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>234.763858874369</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>96.0330334569845</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="19">
@@ -5695,22 +5697,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5741,7 +5743,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,28 +5773,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
         <v>506.1786963984129</v>
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>190.9785763045963</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>190.9785763045963</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>190.9785763045963</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>44.44401833148123</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>44.44401833148123</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>125.0774898247174</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.20856840381305</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>51.20856840381305</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>51.20856840381305</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>37.70441556476175</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>37.70441556476175</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>361.9495094114078</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>361.9495094114078</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X27" t="n">
-        <v>361.9495094114078</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.9495094114078</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
         <v>506.1786963984129</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>491.7024528141798</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C30" t="n">
-        <v>317.2494235330527</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D30" t="n">
-        <v>317.2494235330527</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
         <v>158.0119685275972</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>699.4627515791337</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y30" t="n">
-        <v>491.7024528141798</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>346.8019152129958</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>197.8675055517446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y35" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X35" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7022,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X36" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>327.4530077769195</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>231.7585078938659</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>72.5210528884104</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>535.2133065418734</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>535.2133065418734</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>535.2133065418734</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X39" t="n">
-        <v>535.2133065418734</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y39" t="n">
-        <v>327.4530077769195</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W42" t="n">
-        <v>926.4957180431458</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>718.6442178376129</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.883919072659</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7599,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>293.0313262305118</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C45" t="n">
-        <v>118.5782969493848</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D45" t="n">
-        <v>118.5782969493848</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E45" t="n">
-        <v>118.5782969493848</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F45" t="n">
-        <v>118.5782969493848</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7734,43 +7736,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>461.2466632505798</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>461.2466632505798</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>461.2466632505798</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>461.2466632505798</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>349.0484638974528</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O15" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>98.14696326317221</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>151.0558744761791</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22872,10 +22874,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22917,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23075,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>116.0654025766999</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23340,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>125.6477056446075</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23549,19 +23551,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>384.4284425830174</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23586,16 +23588,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>37.27640067767032</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>206.672197415008</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23732,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23789,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,10 +23816,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23826,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>36.25107279319241</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23862,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>20.72228831938943</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>87.32419776744064</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,10 +24107,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24184,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>141.8469392739093</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>27.19373373354802</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24379,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>71.15759312141155</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>62.82012828698561</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24822,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>115.5076964151278</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>16.34307286900128</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>70.98780581595737</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>131.1259181763289</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25284,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25439,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25479,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>93.10829303922606</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.550700296721345</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,7 +25687,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>185.9018423672239</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,13 +25763,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>214.5091600681041</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,28 +25867,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>128.71681180081</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>39.78592618868815</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
         <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="F2" t="n">
         <v>108004.437145366</v>
@@ -26347,7 +26349,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26451,13 +26453,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764732</v>
+        <v>-21225.79564764734</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390042</v>
+        <v>59543.63588390039</v>
       </c>
       <c r="D6" t="n">
         <v>59543.63588390042</v>
       </c>
       <c r="E6" t="n">
+        <v>93171.23588390043</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="G6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="H6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="I6" t="n">
         <v>93171.2358839004</v>
-      </c>
-      <c r="F6" t="n">
-        <v>93171.23588390039</v>
-      </c>
-      <c r="G6" t="n">
-        <v>93171.2358839004</v>
-      </c>
-      <c r="H6" t="n">
-        <v>93171.23588390039</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93171.23588390037</v>
       </c>
       <c r="J6" t="n">
         <v>30111.29328479416</v>
       </c>
       <c r="K6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="L6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="M6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="N6" t="n">
-        <v>93171.23588390042</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="O6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="P6" t="n">
-        <v>93171.23588390036</v>
+        <v>93171.23588390039</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>217.7067518141195</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
